--- a/biology/Médecine/Convention_AERAS/Convention_AERAS.xlsx
+++ b/biology/Médecine/Convention_AERAS/Convention_AERAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La convention AERAS (s'Assurer et Emprunter avec un risque aggravé de santé) est une convention française qui vise à améliorer l’accès au crédit pour les personnes malades ou qui l'ont été. Elle a été signée par les professionnels de la banque et de l’assurance, les associations et les pouvoirs publics le 6 juillet 2006 et elle est entrée en vigueur au début de  janvier 2007. Elle remplace la convention Belorgey, qui avait déjà permis des avancées importantes : 99,7 % des demandes de crédits présentées ont pu bénéficier d’une offre d’assurance[réf. nécessaire]. La loi du 31 janvier 2007 consacre les principes de la nouvelle convention, les modalités relevant du texte conventionnel. 
 </t>
@@ -511,7 +523,9 @@
           <t>Les avancées de la convention AERAS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’information est renforcée[non neutre] : tous les signataires de la convention y compris les pouvoirs publics et les associations se mobilisent pour faire connaître ce dispositif afin que le public en soit informé très en amont du processus d’emprunt. Par exemple, dans chaque banque, un référent peut répondre aux questions des candidats à l’emprunt concernés par la convention.
 La FBF a mis à la disposition du public un serveur vocal 0821 221 021 0,12 euro par minute).
